--- a/PA1 sheet.xlsx
+++ b/PA1 sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dara\Documents\411\CptS-411\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07C2C79E-FC2A-4AEF-96CC-C77BA17AD769}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFFC444-413B-4328-8994-9C917896775F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E5D2EF45-F7FD-421C-8999-86B6422F243C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>bytes</t>
   </si>
@@ -49,6 +49,21 @@
   </si>
   <si>
     <t>milli</t>
+  </si>
+  <si>
+    <t>blocking slope</t>
+  </si>
+  <si>
+    <t>nonblocking</t>
+  </si>
+  <si>
+    <t>bandwidth</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>avg latency</t>
   </si>
 </sst>
 </file>
@@ -668,7 +683,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$26</c15:sqref>
@@ -766,7 +781,7 @@
                   </c:numLit>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-9C99-4B23-8849-3FCE33C25621}"/>
                   </c:ext>
@@ -1758,7 +1773,7 @@
                   </c:numLit>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-76E6-4F27-ACF1-486A6D0493BD}"/>
                   </c:ext>
@@ -2751,7 +2766,7 @@
                   </c:numLit>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-666C-424E-B2B1-691E47088761}"/>
                   </c:ext>
@@ -3744,7 +3759,7 @@
                   </c:numLit>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-3162-4AA4-B913-BDA80EDBBD0D}"/>
                   </c:ext>
@@ -6339,15 +6354,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6377,15 +6392,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6415,14 +6430,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6750,18 +6765,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57597FA-34AF-456A-917C-60D562980B03}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N60" sqref="N60"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6781,7 +6798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -6801,7 +6818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2*2</f>
         <v>8</v>
@@ -6823,7 +6840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A26" si="0">A3*2</f>
         <v>16</v>
@@ -6845,7 +6862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -6867,7 +6884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -6889,7 +6906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>128</v>
@@ -6911,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>256</v>
@@ -6933,7 +6950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>512</v>
@@ -6955,7 +6972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>1024</v>
@@ -6977,7 +6994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>2048</v>
@@ -6999,7 +7016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>4096</v>
@@ -7021,7 +7038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>8192</v>
@@ -7042,8 +7059,14 @@
       <c r="F13">
         <v>0</v>
       </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>16384</v>
@@ -7064,8 +7087,19 @@
       <c r="F14">
         <v>0</v>
       </c>
+      <c r="H14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <f>(B26-B19)/(A26-A19)</f>
+        <v>8.4896237831416088E-3</v>
+      </c>
+      <c r="J14">
+        <f>AVERAGE(B2:B15)</f>
+        <v>43.214285714285715</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>32768</v>
@@ -7086,8 +7120,19 @@
       <c r="F15">
         <v>0</v>
       </c>
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <f>(E26-E19)/(D26-D19)</f>
+        <v>8.396268829585999E-3</v>
+      </c>
+      <c r="J15">
+        <f>AVERAGE(E2:E15)</f>
+        <v>21.857142857142858</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>65536</v>
@@ -7108,8 +7153,11 @@
       <c r="F16">
         <v>0</v>
       </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>131072</v>
@@ -7130,8 +7178,19 @@
       <c r="F17">
         <v>1</v>
       </c>
+      <c r="H17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <f>(B53-B46)/(A53-A46)</f>
+        <v>8.4980791947973054E-3</v>
+      </c>
+      <c r="J17">
+        <f>AVERAGE(B29:B42)</f>
+        <v>19.642857142857142</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>262144</v>
@@ -7152,8 +7211,19 @@
       <c r="F18">
         <v>2</v>
       </c>
+      <c r="H18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <f>(D53-D46)/(A53-A46)</f>
+        <v>8.4972531776728588E-3</v>
+      </c>
+      <c r="J18">
+        <f>AVERAGE(D29:D41)</f>
+        <v>4.384615384615385</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>524288</v>
@@ -7174,8 +7244,19 @@
       <c r="F19">
         <v>4</v>
       </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19">
+        <f>AVERAGE(I14:I18)</f>
+        <v>8.470306246299443E-3</v>
+      </c>
+      <c r="J19">
+        <f>AVERAGE(J14:J18)</f>
+        <v>22.274725274725274</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>1048576</v>
@@ -7196,8 +7277,15 @@
       <c r="F20">
         <v>9</v>
       </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <f>1/AVERAGE(I14:I18)</f>
+        <v>118.05948579921603</v>
+      </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>A20*2</f>
         <v>2097152</v>
@@ -7219,7 +7307,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>4194304</v>
@@ -7241,7 +7329,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>8388608</v>
@@ -7263,7 +7351,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>16777216</v>
@@ -7285,7 +7373,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>A24*2</f>
         <v>33554432</v>
@@ -7307,7 +7395,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>67108864</v>
@@ -7329,7 +7417,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -7337,7 +7425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -7348,7 +7436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -7365,7 +7453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>2*A29</f>
         <v>8</v>
@@ -7383,7 +7471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ref="A31:A48" si="2">2*A30</f>
         <v>16</v>
@@ -7401,7 +7489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="2"/>
         <v>32</v>
